--- a/Cleaned-Data/2018-Passouts/Sem-6_2018_Passout_cleaned.xlsx
+++ b/Cleaned-Data/2018-Passouts/Sem-6_2018_Passout_cleaned.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="184">
   <si>
     <t>SPCC-TH</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>P*</t>
-  </si>
-  <si>
-    <t>--</t>
   </si>
   <si>
     <t>52  6.33</t>
@@ -985,7 +982,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H8" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="111.1640625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1017,13 +1016,13 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -1083,15 +1082,15 @@
         <v>18</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -1157,7 +1156,7 @@
         <v>42</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X2" s="1">
         <v>6.96</v>
@@ -1165,7 +1164,7 @@
     </row>
     <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -1231,7 +1230,7 @@
         <v>44</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X3" s="1">
         <v>8.2100000000000009</v>
@@ -1239,7 +1238,7 @@
     </row>
     <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
@@ -1305,7 +1304,7 @@
         <v>47</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X4" s="1">
         <v>8.67</v>
@@ -1313,7 +1312,7 @@
     </row>
     <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -1379,7 +1378,7 @@
         <v>40</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X5" s="1">
         <v>7.92</v>
@@ -1387,7 +1386,7 @@
     </row>
     <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
@@ -1453,7 +1452,7 @@
         <v>42</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X6" s="1">
         <v>9.33</v>
@@ -1461,7 +1460,7 @@
     </row>
     <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
@@ -1527,7 +1526,7 @@
         <v>41</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X7" s="1">
         <v>9</v>
@@ -1535,7 +1534,7 @@
     </row>
     <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="6">
         <v>0</v>
@@ -1601,7 +1600,7 @@
         <v>39</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X8" s="1">
         <v>8.17</v>
@@ -1609,7 +1608,7 @@
     </row>
     <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
@@ -1675,7 +1674,7 @@
         <v>42</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X9" s="1">
         <v>8.33</v>
@@ -1683,7 +1682,7 @@
     </row>
     <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="6">
         <v>0</v>
@@ -1749,7 +1748,7 @@
         <v>40</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X10" s="1">
         <v>8.17</v>
@@ -1757,7 +1756,7 @@
     </row>
     <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
@@ -1823,7 +1822,7 @@
         <v>41</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X11" s="1">
         <v>8</v>
@@ -1831,7 +1830,7 @@
     </row>
     <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="6">
         <v>0</v>
@@ -1897,7 +1896,7 @@
         <v>40</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X12" s="1">
         <v>9.83</v>
@@ -1905,7 +1904,7 @@
     </row>
     <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="6">
         <v>0</v>
@@ -1971,7 +1970,7 @@
         <v>40</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X13" s="1">
         <v>6.92</v>
@@ -1979,7 +1978,7 @@
     </row>
     <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="6">
         <v>0</v>
@@ -2045,7 +2044,7 @@
         <v>39</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X14" s="1">
         <v>6.92</v>
@@ -2053,7 +2052,7 @@
     </row>
     <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B15" s="6">
         <v>1</v>
@@ -2119,7 +2118,7 @@
         <v>39</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X15" s="1">
         <v>7.83</v>
@@ -2127,7 +2126,7 @@
     </row>
     <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="6">
         <v>0</v>
@@ -2193,7 +2192,7 @@
         <v>39</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X16" s="1">
         <v>8.17</v>
@@ -2201,7 +2200,7 @@
     </row>
     <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="6">
         <v>0</v>
@@ -2267,7 +2266,7 @@
         <v>42</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X17" s="1">
         <v>7.67</v>
@@ -2275,7 +2274,7 @@
     </row>
     <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="6">
         <v>0</v>
@@ -2341,7 +2340,7 @@
         <v>39</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X18" s="1">
         <v>6.42</v>
@@ -2349,7 +2348,7 @@
     </row>
     <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
@@ -2415,7 +2414,7 @@
         <v>42</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X19" s="1">
         <v>9.5</v>
@@ -2423,7 +2422,7 @@
     </row>
     <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="6">
         <v>0</v>
@@ -2489,7 +2488,7 @@
         <v>41</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X20" s="1">
         <v>7.67</v>
@@ -2497,7 +2496,7 @@
     </row>
     <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B21" s="6">
         <v>1</v>
@@ -2563,7 +2562,7 @@
         <v>45</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X21" s="1">
         <v>9.33</v>
@@ -2571,7 +2570,7 @@
     </row>
     <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
@@ -2637,7 +2636,7 @@
         <v>42</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X22" s="1">
         <v>8.5</v>
@@ -2645,7 +2644,7 @@
     </row>
     <row r="23" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B23" s="6">
         <v>1</v>
@@ -2711,7 +2710,7 @@
         <v>40</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X23" s="1">
         <v>9.17</v>
@@ -2719,7 +2718,7 @@
     </row>
     <row r="24" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="6">
         <v>0</v>
@@ -2785,7 +2784,7 @@
         <v>43</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X24" s="1">
         <v>9.5</v>
@@ -2793,7 +2792,7 @@
     </row>
     <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
@@ -2867,7 +2866,7 @@
     </row>
     <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="6">
         <v>0</v>
@@ -2933,7 +2932,7 @@
         <v>39</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X26" s="1">
         <v>6.54</v>
@@ -2941,7 +2940,7 @@
     </row>
     <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="6">
         <v>0</v>
@@ -3007,7 +3006,7 @@
         <v>40</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X27" s="1">
         <v>7.83</v>
@@ -3015,7 +3014,7 @@
     </row>
     <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="6">
         <v>0</v>
@@ -3081,7 +3080,7 @@
         <v>47</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X28" s="1">
         <v>9.5</v>
@@ -3089,7 +3088,7 @@
     </row>
     <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="6">
         <v>0</v>
@@ -3155,15 +3154,15 @@
         <v>38</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>20</v>
+        <v>139</v>
+      </c>
+      <c r="X29" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B30" s="6">
         <v>1</v>
@@ -3229,7 +3228,7 @@
         <v>45</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X30" s="1">
         <v>8.83</v>
@@ -3237,7 +3236,7 @@
     </row>
     <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="6">
         <v>0</v>
@@ -3303,15 +3302,15 @@
         <v>39</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="X31" s="1" t="s">
-        <v>20</v>
+        <v>139</v>
+      </c>
+      <c r="X31" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="6">
         <v>0</v>
@@ -3377,7 +3376,7 @@
         <v>47</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X32" s="1">
         <v>7.21</v>
@@ -3385,7 +3384,7 @@
     </row>
     <row r="33" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B33" s="6">
         <v>1</v>
@@ -3451,7 +3450,7 @@
         <v>40</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X33" s="1">
         <v>7.83</v>
@@ -3459,7 +3458,7 @@
     </row>
     <row r="34" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="6">
         <v>0</v>
@@ -3525,7 +3524,7 @@
         <v>40</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X34" s="1">
         <v>7.67</v>
@@ -3533,7 +3532,7 @@
     </row>
     <row r="35" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="6">
         <v>0</v>
@@ -3599,7 +3598,7 @@
         <v>41</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X35" s="1">
         <v>7.79</v>
@@ -3607,7 +3606,7 @@
     </row>
     <row r="36" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" s="6">
         <v>0</v>
@@ -3673,7 +3672,7 @@
         <v>40</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X36" s="1">
         <v>6.96</v>
@@ -3681,7 +3680,7 @@
     </row>
     <row r="37" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" s="6">
         <v>0</v>
@@ -3747,7 +3746,7 @@
         <v>45</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X37" s="1">
         <v>8.33</v>
@@ -3755,7 +3754,7 @@
     </row>
     <row r="38" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B38" s="6">
         <v>1</v>
@@ -3821,7 +3820,7 @@
         <v>40</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X38" s="1">
         <v>8.33</v>
@@ -3829,7 +3828,7 @@
     </row>
     <row r="39" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B39" s="6">
         <v>1</v>
@@ -3895,7 +3894,7 @@
         <v>43</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X39" s="1">
         <v>9.33</v>
@@ -3903,7 +3902,7 @@
     </row>
     <row r="40" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="6">
         <v>0</v>
@@ -3969,7 +3968,7 @@
         <v>43</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X40" s="1">
         <v>8</v>
@@ -3977,7 +3976,7 @@
     </row>
     <row r="41" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B41" s="6">
         <v>1</v>
@@ -4043,7 +4042,7 @@
         <v>42</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X41" s="1">
         <v>7.42</v>
@@ -4051,7 +4050,7 @@
     </row>
     <row r="42" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" s="6">
         <v>0</v>
@@ -4117,7 +4116,7 @@
         <v>38</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X42" s="1">
         <v>6.5</v>
@@ -4125,7 +4124,7 @@
     </row>
     <row r="43" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="6">
         <v>0</v>
@@ -4191,7 +4190,7 @@
         <v>40</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X43" s="1">
         <v>8.17</v>
@@ -4199,7 +4198,7 @@
     </row>
     <row r="44" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="6">
         <v>0</v>
@@ -4265,7 +4264,7 @@
         <v>46</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X44" s="1">
         <v>7.67</v>
@@ -4273,7 +4272,7 @@
     </row>
     <row r="45" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="6">
         <v>0</v>
@@ -4339,7 +4338,7 @@
         <v>40</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X45" s="1">
         <v>8.83</v>
@@ -4347,7 +4346,7 @@
     </row>
     <row r="46" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="6">
         <v>0</v>
@@ -4413,7 +4412,7 @@
         <v>42</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X46" s="1">
         <v>8.33</v>
@@ -4421,7 +4420,7 @@
     </row>
     <row r="47" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" s="6">
         <v>0</v>
@@ -4487,7 +4486,7 @@
         <v>39</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X47" s="1">
         <v>8.5</v>
@@ -4495,7 +4494,7 @@
     </row>
     <row r="48" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" s="6">
         <v>0</v>
@@ -4561,7 +4560,7 @@
         <v>38</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X48" s="1">
         <v>7.42</v>
@@ -4569,7 +4568,7 @@
     </row>
     <row r="49" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" s="6">
         <v>0</v>
@@ -4635,7 +4634,7 @@
         <v>38</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X49" s="1">
         <v>8.83</v>
@@ -4643,7 +4642,7 @@
     </row>
     <row r="50" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50" s="6">
         <v>0</v>
@@ -4709,7 +4708,7 @@
         <v>37</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X50" s="1">
         <v>7.42</v>
@@ -4717,7 +4716,7 @@
     </row>
     <row r="51" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" s="6">
         <v>0</v>
@@ -4783,7 +4782,7 @@
         <v>39</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X51" s="1">
         <v>7.58</v>
@@ -4791,7 +4790,7 @@
     </row>
     <row r="52" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B52" s="6">
         <v>0</v>
@@ -4857,7 +4856,7 @@
         <v>39</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X52" s="1">
         <v>8.92</v>
@@ -4865,7 +4864,7 @@
     </row>
     <row r="53" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B53" s="6">
         <v>1</v>
@@ -4931,7 +4930,7 @@
         <v>39</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X53" s="1">
         <v>9</v>
@@ -4939,7 +4938,7 @@
     </row>
     <row r="54" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B54" s="6">
         <v>1</v>
@@ -5005,7 +5004,7 @@
         <v>40</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X54" s="1">
         <v>8.67</v>
@@ -5013,7 +5012,7 @@
     </row>
     <row r="55" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B55" s="6">
         <v>1</v>
@@ -5079,7 +5078,7 @@
         <v>39</v>
       </c>
       <c r="W55" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X55" s="1">
         <v>9.08</v>
@@ -5087,7 +5086,7 @@
     </row>
     <row r="56" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56" s="6">
         <v>0</v>
@@ -5153,7 +5152,7 @@
         <v>38</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X56" s="1">
         <v>8</v>
@@ -5161,7 +5160,7 @@
     </row>
     <row r="57" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" s="6">
         <v>0</v>
@@ -5227,7 +5226,7 @@
         <v>39</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X57" s="1">
         <v>8.17</v>
@@ -5235,7 +5234,7 @@
     </row>
     <row r="58" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B58" s="6">
         <v>1</v>
@@ -5301,7 +5300,7 @@
         <v>39</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X58" s="1">
         <v>8</v>
@@ -5309,7 +5308,7 @@
     </row>
     <row r="59" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B59" s="6">
         <v>0</v>
@@ -5375,7 +5374,7 @@
         <v>40</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X59" s="1">
         <v>6.67</v>
@@ -5383,7 +5382,7 @@
     </row>
     <row r="60" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60" s="6">
         <v>0</v>
@@ -5449,7 +5448,7 @@
         <v>38</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X60" s="1">
         <v>7.92</v>
@@ -5457,7 +5456,7 @@
     </row>
     <row r="61" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61" s="6">
         <v>0</v>
@@ -5523,7 +5522,7 @@
         <v>39</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X61" s="1">
         <v>7.92</v>
@@ -5531,7 +5530,7 @@
     </row>
     <row r="62" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B62" s="6">
         <v>0</v>
@@ -5597,7 +5596,7 @@
         <v>39</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X62" s="1">
         <v>7.5</v>
@@ -5605,7 +5604,7 @@
     </row>
     <row r="63" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" s="6">
         <v>0</v>
@@ -5671,7 +5670,7 @@
         <v>45</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X63" s="1">
         <v>8.17</v>
@@ -5679,7 +5678,7 @@
     </row>
     <row r="64" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64" s="6">
         <v>0</v>
@@ -5745,7 +5744,7 @@
         <v>41</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X64" s="1">
         <v>9.6300000000000008</v>
@@ -5753,7 +5752,7 @@
     </row>
     <row r="65" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B65" s="6">
         <v>0</v>
@@ -5819,7 +5818,7 @@
         <v>40</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X65" s="1">
         <v>8.67</v>
@@ -5827,7 +5826,7 @@
     </row>
     <row r="66" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66" s="6">
         <v>0</v>
@@ -5893,7 +5892,7 @@
         <v>40</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X66" s="1">
         <v>8.58</v>
@@ -5901,7 +5900,7 @@
     </row>
     <row r="67" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B67" s="6">
         <v>0</v>
@@ -5967,7 +5966,7 @@
         <v>39</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X67" s="1">
         <v>7.38</v>
@@ -5975,7 +5974,7 @@
     </row>
     <row r="68" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B68" s="6">
         <v>0</v>
@@ -6041,7 +6040,7 @@
         <v>46</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X68" s="1">
         <v>8.67</v>
@@ -6049,7 +6048,7 @@
     </row>
     <row r="69" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B69" s="6">
         <v>1</v>
@@ -6115,7 +6114,7 @@
         <v>40</v>
       </c>
       <c r="W69" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X69" s="1">
         <v>8.58</v>
@@ -6123,7 +6122,7 @@
     </row>
     <row r="70" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" s="6">
         <v>0</v>
@@ -6189,7 +6188,7 @@
         <v>39</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X70" s="1">
         <v>7.83</v>
@@ -6197,7 +6196,7 @@
     </row>
     <row r="71" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" s="6">
         <v>0</v>
@@ -6263,7 +6262,7 @@
         <v>40</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X71" s="1">
         <v>7.88</v>
@@ -6271,7 +6270,7 @@
     </row>
     <row r="72" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B72" s="6">
         <v>1</v>
@@ -6337,7 +6336,7 @@
         <v>44</v>
       </c>
       <c r="W72" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X72" s="1">
         <v>9</v>
@@ -6345,7 +6344,7 @@
     </row>
     <row r="73" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" s="6">
         <v>0</v>
@@ -6411,7 +6410,7 @@
         <v>37</v>
       </c>
       <c r="W73" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X73" s="1">
         <v>6.21</v>
@@ -6419,7 +6418,7 @@
     </row>
     <row r="74" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="6">
         <v>0</v>
@@ -6485,7 +6484,7 @@
         <v>40</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X74" s="1">
         <v>8.5</v>
@@ -6493,7 +6492,7 @@
     </row>
     <row r="75" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="6">
         <v>0</v>
@@ -6559,7 +6558,7 @@
         <v>37</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X75" s="1">
         <v>5.96</v>
@@ -6567,7 +6566,7 @@
     </row>
     <row r="76" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" s="6">
         <v>0</v>
@@ -6633,7 +6632,7 @@
         <v>45</v>
       </c>
       <c r="W76" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X76" s="1">
         <v>8.5</v>
@@ -6641,7 +6640,7 @@
     </row>
     <row r="77" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B77" s="6">
         <v>1</v>
@@ -6707,7 +6706,7 @@
         <v>48</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X77" s="1">
         <v>9.83</v>
@@ -6715,7 +6714,7 @@
     </row>
     <row r="78" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" s="6">
         <v>0</v>
@@ -6781,7 +6780,7 @@
         <v>46</v>
       </c>
       <c r="W78" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X78" s="1">
         <v>8</v>
@@ -6789,7 +6788,7 @@
     </row>
     <row r="79" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B79" s="6">
         <v>1</v>
@@ -6855,7 +6854,7 @@
         <v>44</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X79" s="1">
         <v>8.17</v>
@@ -6863,7 +6862,7 @@
     </row>
     <row r="80" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" s="6">
         <v>0</v>
@@ -6929,7 +6928,7 @@
         <v>44</v>
       </c>
       <c r="W80" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X80" s="1">
         <v>8.83</v>
@@ -6937,7 +6936,7 @@
     </row>
     <row r="81" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B81" s="6">
         <v>1</v>
@@ -7003,7 +7002,7 @@
         <v>40</v>
       </c>
       <c r="W81" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X81" s="1">
         <v>8.5</v>
@@ -7011,7 +7010,7 @@
     </row>
     <row r="82" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="6">
         <v>0</v>
@@ -7077,7 +7076,7 @@
         <v>40</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X82" s="1">
         <v>7.67</v>
@@ -7085,7 +7084,7 @@
     </row>
     <row r="83" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B83" s="6">
         <v>1</v>
@@ -7151,7 +7150,7 @@
         <v>46</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X83" s="1">
         <v>9.67</v>
@@ -7159,7 +7158,7 @@
     </row>
     <row r="84" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B84" s="6">
         <v>1</v>
@@ -7225,7 +7224,7 @@
         <v>40</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X84" s="1">
         <v>7</v>
@@ -7233,7 +7232,7 @@
     </row>
     <row r="85" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85" s="6">
         <v>0</v>
@@ -7299,7 +7298,7 @@
         <v>41</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X85" s="1">
         <v>6.83</v>
@@ -7307,7 +7306,7 @@
     </row>
     <row r="86" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B86" s="6">
         <v>1</v>
@@ -7373,7 +7372,7 @@
         <v>43</v>
       </c>
       <c r="W86" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X86" s="1">
         <v>8.33</v>
@@ -7381,7 +7380,7 @@
     </row>
     <row r="87" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B87" s="6">
         <v>0</v>
@@ -7447,7 +7446,7 @@
         <v>46</v>
       </c>
       <c r="W87" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X87" s="1">
         <v>7.83</v>
@@ -7455,7 +7454,7 @@
     </row>
     <row r="88" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B88" s="6">
         <v>0</v>
@@ -7521,7 +7520,7 @@
         <v>40</v>
       </c>
       <c r="W88" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X88" s="1">
         <v>8.0399999999999991</v>
@@ -7529,7 +7528,7 @@
     </row>
     <row r="89" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B89" s="6">
         <v>1</v>
@@ -7595,7 +7594,7 @@
         <v>39</v>
       </c>
       <c r="W89" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X89" s="1">
         <v>7.5</v>
@@ -7603,7 +7602,7 @@
     </row>
     <row r="90" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B90" s="6">
         <v>0</v>
@@ -7669,7 +7668,7 @@
         <v>44</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X90" s="1">
         <v>8.33</v>
@@ -7677,7 +7676,7 @@
     </row>
     <row r="91" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B91" s="6">
         <v>0</v>
@@ -7743,7 +7742,7 @@
         <v>43</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X91" s="1">
         <v>7.83</v>
@@ -7751,7 +7750,7 @@
     </row>
     <row r="92" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B92" s="6">
         <v>0</v>
@@ -7817,7 +7816,7 @@
         <v>40</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X92" s="1">
         <v>9.17</v>
@@ -7825,7 +7824,7 @@
     </row>
     <row r="93" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B93" s="6">
         <v>0</v>
@@ -7891,7 +7890,7 @@
         <v>38</v>
       </c>
       <c r="W93" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X93" s="1">
         <v>7.67</v>
@@ -7899,7 +7898,7 @@
     </row>
     <row r="94" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B94" s="6">
         <v>0</v>
@@ -7965,7 +7964,7 @@
         <v>40</v>
       </c>
       <c r="W94" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X94" s="1">
         <v>8.83</v>
@@ -7973,7 +7972,7 @@
     </row>
     <row r="95" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B95" s="6">
         <v>0</v>
@@ -8039,7 +8038,7 @@
         <v>39</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X95" s="1">
         <v>7.5</v>
@@ -8047,7 +8046,7 @@
     </row>
     <row r="96" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B96" s="6">
         <v>0</v>
@@ -8113,7 +8112,7 @@
         <v>40</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X96" s="1">
         <v>7.79</v>
@@ -8121,7 +8120,7 @@
     </row>
     <row r="97" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B97" s="6">
         <v>0</v>
@@ -8187,7 +8186,7 @@
         <v>40</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X97" s="1">
         <v>7.67</v>
@@ -8195,7 +8194,7 @@
     </row>
     <row r="98" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B98" s="6">
         <v>0</v>
@@ -8261,7 +8260,7 @@
         <v>42</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X98" s="1">
         <v>9.33</v>
@@ -8269,7 +8268,7 @@
     </row>
     <row r="99" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B99" s="6">
         <v>1</v>
@@ -8335,7 +8334,7 @@
         <v>38</v>
       </c>
       <c r="W99" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X99" s="1">
         <v>6.46</v>
@@ -8343,7 +8342,7 @@
     </row>
     <row r="100" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B100" s="6">
         <v>1</v>
@@ -8409,7 +8408,7 @@
         <v>46</v>
       </c>
       <c r="W100" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X100" s="1">
         <v>9.7899999999999991</v>
@@ -8417,7 +8416,7 @@
     </row>
     <row r="101" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B101" s="6">
         <v>0</v>
@@ -8483,7 +8482,7 @@
         <v>40</v>
       </c>
       <c r="W101" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X101" s="1">
         <v>7.83</v>
@@ -8491,7 +8490,7 @@
     </row>
     <row r="102" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B102" s="6">
         <v>0</v>
@@ -8557,7 +8556,7 @@
         <v>42</v>
       </c>
       <c r="W102" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X102" s="1">
         <v>8.83</v>
@@ -8565,7 +8564,7 @@
     </row>
     <row r="103" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B103" s="6">
         <v>0</v>
@@ -8631,7 +8630,7 @@
         <v>43</v>
       </c>
       <c r="W103" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X103" s="1">
         <v>8</v>
@@ -8639,7 +8638,7 @@
     </row>
     <row r="104" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B104" s="6">
         <v>0</v>
@@ -8705,7 +8704,7 @@
         <v>40</v>
       </c>
       <c r="W104" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X104" s="1">
         <v>6.08</v>
@@ -8713,7 +8712,7 @@
     </row>
     <row r="105" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B105" s="6">
         <v>1</v>
@@ -8779,7 +8778,7 @@
         <v>39</v>
       </c>
       <c r="W105" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X105" s="1">
         <v>7.38</v>
@@ -8787,7 +8786,7 @@
     </row>
     <row r="106" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B106" s="6">
         <v>0</v>
@@ -8853,7 +8852,7 @@
         <v>44</v>
       </c>
       <c r="W106" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X106" s="1">
         <v>9.17</v>
@@ -8861,7 +8860,7 @@
     </row>
     <row r="107" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B107" s="6">
         <v>0</v>
@@ -8927,7 +8926,7 @@
         <v>39</v>
       </c>
       <c r="W107" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X107" s="1">
         <v>7.58</v>
@@ -8935,7 +8934,7 @@
     </row>
     <row r="108" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B108" s="6">
         <v>0</v>
@@ -9001,7 +9000,7 @@
         <v>45</v>
       </c>
       <c r="W108" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X108" s="1">
         <v>6.17</v>
@@ -9009,7 +9008,7 @@
     </row>
     <row r="109" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B109" s="6">
         <v>1</v>
@@ -9075,7 +9074,7 @@
         <v>41</v>
       </c>
       <c r="W109" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X109" s="1">
         <v>9</v>
@@ -9083,7 +9082,7 @@
     </row>
     <row r="110" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B110" s="6">
         <v>0</v>
@@ -9149,7 +9148,7 @@
         <v>40</v>
       </c>
       <c r="W110" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X110" s="1">
         <v>7.96</v>
@@ -9157,7 +9156,7 @@
     </row>
     <row r="111" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B111" s="6">
         <v>0</v>
@@ -9223,7 +9222,7 @@
         <v>38</v>
       </c>
       <c r="W111" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X111" s="1">
         <v>6.17</v>
@@ -9231,7 +9230,7 @@
     </row>
     <row r="112" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B112" s="6">
         <v>0</v>
@@ -9297,7 +9296,7 @@
         <v>48</v>
       </c>
       <c r="W112" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X112" s="1">
         <v>9.5</v>
@@ -9305,7 +9304,7 @@
     </row>
     <row r="113" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B113" s="6">
         <v>0</v>
@@ -9371,7 +9370,7 @@
         <v>44</v>
       </c>
       <c r="W113" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X113" s="1">
         <v>8.67</v>
@@ -9379,7 +9378,7 @@
     </row>
     <row r="114" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B114" s="6">
         <v>0</v>
@@ -9445,7 +9444,7 @@
         <v>39</v>
       </c>
       <c r="W114" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X114" s="1">
         <v>6.92</v>
@@ -9453,7 +9452,7 @@
     </row>
     <row r="115" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B115" s="6">
         <v>1</v>
@@ -9519,7 +9518,7 @@
         <v>39</v>
       </c>
       <c r="W115" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X115" s="1">
         <v>7.83</v>
@@ -9527,7 +9526,7 @@
     </row>
     <row r="116" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B116" s="6">
         <v>0</v>
@@ -9593,15 +9592,15 @@
         <v>45</v>
       </c>
       <c r="W116" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="X116" s="1" t="s">
-        <v>20</v>
+        <v>139</v>
+      </c>
+      <c r="X116" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B117" s="6">
         <v>1</v>
@@ -9667,7 +9666,7 @@
         <v>39</v>
       </c>
       <c r="W117" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X117" s="1">
         <v>7.25</v>
@@ -9675,7 +9674,7 @@
     </row>
     <row r="118" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B118" s="6">
         <v>0</v>
@@ -9741,7 +9740,7 @@
         <v>42</v>
       </c>
       <c r="W118" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X118" s="1">
         <v>8.67</v>
@@ -9749,7 +9748,7 @@
     </row>
     <row r="119" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B119" s="6">
         <v>0</v>
@@ -9815,7 +9814,7 @@
         <v>38</v>
       </c>
       <c r="W119" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X119" s="1">
         <v>6.13</v>
@@ -9823,7 +9822,7 @@
     </row>
     <row r="120" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B120" s="6">
         <v>0</v>
@@ -9889,7 +9888,7 @@
         <v>41</v>
       </c>
       <c r="W120" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X120" s="1">
         <v>7.25</v>
@@ -9897,7 +9896,7 @@
     </row>
     <row r="121" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B121" s="6">
         <v>1</v>
@@ -9963,7 +9962,7 @@
         <v>40</v>
       </c>
       <c r="W121" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X121" s="1">
         <v>9.33</v>
@@ -9971,7 +9970,7 @@
     </row>
     <row r="122" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B122" s="6">
         <v>1</v>
@@ -10037,7 +10036,7 @@
         <v>44</v>
       </c>
       <c r="W122" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X122" s="1">
         <v>9.17</v>
@@ -10045,7 +10044,7 @@
     </row>
     <row r="123" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B123" s="6">
         <v>1</v>
@@ -10111,7 +10110,7 @@
         <v>40</v>
       </c>
       <c r="W123" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X123" s="1">
         <v>7.5</v>
@@ -10119,7 +10118,7 @@
     </row>
     <row r="124" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B124" s="6">
         <v>0</v>
@@ -10193,7 +10192,7 @@
     </row>
     <row r="125" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B125" s="6">
         <v>0</v>
@@ -10259,7 +10258,7 @@
         <v>40</v>
       </c>
       <c r="W125" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X125" s="1">
         <v>8.67</v>
@@ -10267,7 +10266,7 @@
     </row>
     <row r="126" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B126" s="6">
         <v>0</v>
@@ -10333,15 +10332,15 @@
         <v>36</v>
       </c>
       <c r="W126" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="X126" s="1" t="s">
-        <v>20</v>
+        <v>139</v>
+      </c>
+      <c r="X126" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B127" s="6">
         <v>0</v>
@@ -10407,7 +10406,7 @@
         <v>41</v>
       </c>
       <c r="W127" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X127" s="1">
         <v>8.5</v>
@@ -10415,7 +10414,7 @@
     </row>
     <row r="128" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B128" s="6">
         <v>0</v>
@@ -10481,7 +10480,7 @@
         <v>41</v>
       </c>
       <c r="W128" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X128" s="1">
         <v>7.33</v>
@@ -10489,7 +10488,7 @@
     </row>
     <row r="129" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B129" s="6">
         <v>0</v>
@@ -10555,15 +10554,15 @@
         <v>40</v>
       </c>
       <c r="W129" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X129" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B130" s="6">
         <v>0</v>
@@ -10629,7 +10628,7 @@
         <v>38</v>
       </c>
       <c r="W130" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X130" s="1">
         <v>6.58</v>
@@ -10637,7 +10636,7 @@
     </row>
     <row r="131" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B131" s="6">
         <v>0</v>
@@ -10703,7 +10702,7 @@
         <v>42</v>
       </c>
       <c r="W131" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X131" s="1">
         <v>8.33</v>
@@ -10711,7 +10710,7 @@
     </row>
     <row r="132" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B132" s="6">
         <v>1</v>
@@ -10777,7 +10776,7 @@
         <v>40</v>
       </c>
       <c r="W132" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X132" s="1">
         <v>8.67</v>
@@ -10785,7 +10784,7 @@
     </row>
     <row r="133" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B133" s="6">
         <v>0</v>
@@ -10859,7 +10858,7 @@
     </row>
     <row r="134" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B134" s="6">
         <v>0</v>
@@ -10925,7 +10924,7 @@
         <v>38</v>
       </c>
       <c r="W134" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X134" s="1">
         <v>6.17</v>
@@ -10933,7 +10932,7 @@
     </row>
     <row r="135" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B135" s="6">
         <v>1</v>
@@ -10999,7 +10998,7 @@
         <v>42</v>
       </c>
       <c r="W135" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X135" s="1">
         <v>8.7100000000000009</v>
@@ -11007,7 +11006,7 @@
     </row>
     <row r="136" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B136" s="6">
         <v>0</v>
@@ -11073,7 +11072,7 @@
         <v>38</v>
       </c>
       <c r="W136" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X136" s="1">
         <v>6.63</v>
@@ -11081,7 +11080,7 @@
     </row>
     <row r="137" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B137" s="6">
         <v>0</v>
@@ -11147,7 +11146,7 @@
         <v>39</v>
       </c>
       <c r="W137" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X137" s="1">
         <v>7.5</v>
@@ -11155,7 +11154,7 @@
     </row>
     <row r="138" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B138" s="6">
         <v>0</v>
@@ -11221,7 +11220,7 @@
         <v>37</v>
       </c>
       <c r="W138" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X138" s="1">
         <v>5.79</v>
@@ -11229,7 +11228,7 @@
     </row>
     <row r="139" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B139" s="6">
         <v>0</v>
@@ -11295,7 +11294,7 @@
         <v>45</v>
       </c>
       <c r="W139" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X139" s="1">
         <v>9.67</v>
@@ -11303,7 +11302,7 @@
     </row>
     <row r="140" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B140" s="6">
         <v>0</v>
@@ -11369,7 +11368,7 @@
         <v>42</v>
       </c>
       <c r="W140" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X140" s="1">
         <v>7.83</v>
@@ -11377,7 +11376,7 @@
     </row>
     <row r="141" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B141" s="6">
         <v>0</v>
@@ -11443,7 +11442,7 @@
         <v>40</v>
       </c>
       <c r="W141" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X141" s="1">
         <v>8</v>
@@ -11451,7 +11450,7 @@
     </row>
     <row r="142" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B142" s="6">
         <v>0</v>
@@ -11517,7 +11516,7 @@
         <v>40</v>
       </c>
       <c r="W142" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X142" s="1">
         <v>7.08</v>
@@ -11525,7 +11524,7 @@
     </row>
     <row r="143" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B143" s="6">
         <v>0</v>
@@ -11591,15 +11590,15 @@
         <v>39</v>
       </c>
       <c r="W143" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="X143" s="1" t="s">
-        <v>20</v>
+        <v>139</v>
+      </c>
+      <c r="X143" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B144" s="6">
         <v>0</v>
@@ -11665,7 +11664,7 @@
         <v>39</v>
       </c>
       <c r="W144" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X144" s="1">
         <v>8.0399999999999991</v>
@@ -11673,7 +11672,7 @@
     </row>
     <row r="145" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B145" s="6">
         <v>1</v>
@@ -11739,7 +11738,7 @@
         <v>38</v>
       </c>
       <c r="W145" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X145" s="1">
         <v>7.25</v>
@@ -11747,7 +11746,7 @@
     </row>
     <row r="146" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B146" s="6">
         <v>0</v>
@@ -11813,7 +11812,7 @@
         <v>43</v>
       </c>
       <c r="W146" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X146" s="1">
         <v>9.08</v>
@@ -11821,7 +11820,7 @@
     </row>
     <row r="147" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B147" s="6">
         <v>1</v>
@@ -11887,7 +11886,7 @@
         <v>42</v>
       </c>
       <c r="W147" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X147" s="1">
         <v>9.17</v>
@@ -11895,7 +11894,7 @@
     </row>
     <row r="148" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B148" s="6">
         <v>1</v>
@@ -11961,7 +11960,7 @@
         <v>43</v>
       </c>
       <c r="W148" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X148" s="1">
         <v>9.83</v>
@@ -11969,7 +11968,7 @@
     </row>
     <row r="149" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B149" s="6">
         <v>0</v>
@@ -12035,7 +12034,7 @@
         <v>43</v>
       </c>
       <c r="W149" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X149" s="1">
         <v>8.0399999999999991</v>
@@ -12043,7 +12042,7 @@
     </row>
     <row r="150" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B150" s="6">
         <v>0</v>
@@ -12109,7 +12108,7 @@
         <v>48</v>
       </c>
       <c r="W150" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X150" s="1">
         <v>9.33</v>
@@ -12117,7 +12116,7 @@
     </row>
     <row r="151" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B151" s="6">
         <v>0</v>
@@ -12183,7 +12182,7 @@
         <v>40</v>
       </c>
       <c r="W151" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X151" s="1">
         <v>7.83</v>
@@ -12191,7 +12190,7 @@
     </row>
     <row r="152" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B152" s="6">
         <v>0</v>
@@ -12257,15 +12256,15 @@
         <v>0</v>
       </c>
       <c r="W152" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="X152" s="1" t="s">
-        <v>20</v>
+        <v>139</v>
+      </c>
+      <c r="X152" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B153" s="6">
         <v>0</v>
@@ -12331,15 +12330,15 @@
         <v>41</v>
       </c>
       <c r="W153" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="X153" s="1" t="s">
-        <v>20</v>
+        <v>139</v>
+      </c>
+      <c r="X153" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B154" s="6">
         <v>0</v>
@@ -12405,15 +12404,15 @@
         <v>39</v>
       </c>
       <c r="W154" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="X154" s="1" t="s">
-        <v>20</v>
+        <v>139</v>
+      </c>
+      <c r="X154" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B155" s="6">
         <v>0</v>
@@ -12479,7 +12478,7 @@
         <v>47</v>
       </c>
       <c r="W155" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X155" s="1">
         <v>6.5</v>
@@ -12487,7 +12486,7 @@
     </row>
     <row r="156" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B156" s="6">
         <v>0</v>
@@ -12553,15 +12552,15 @@
         <v>35</v>
       </c>
       <c r="W156" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="X156" s="1" t="s">
-        <v>20</v>
+        <v>139</v>
+      </c>
+      <c r="X156" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B157" s="6">
         <v>0</v>
@@ -12627,10 +12626,10 @@
         <v>0</v>
       </c>
       <c r="W157" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="X157" s="1" t="s">
-        <v>20</v>
+        <v>139</v>
+      </c>
+      <c r="X157" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Cleaned-Data/2018-Passouts/Sem-6_2018_Passout_cleaned.xlsx
+++ b/Cleaned-Data/2018-Passouts/Sem-6_2018_Passout_cleaned.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table 1'!$A$1:$AM$157</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table 1'!$A$1:$X$157</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="183">
   <si>
     <t>SPCC-TH</t>
   </si>
@@ -92,18 +92,12 @@
     <t>P*</t>
   </si>
   <si>
-    <t>52  6.33</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
     <t>P/F</t>
   </si>
   <si>
-    <t>CGPA</t>
-  </si>
-  <si>
     <t>Sno</t>
   </si>
   <si>
@@ -582,6 +576,9 @@
   </si>
   <si>
     <t>YADAV REENA RAMKARAN</t>
+  </si>
+  <si>
+    <t>GPA</t>
   </si>
 </sst>
 </file>
@@ -982,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H8" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="X158" sqref="X158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="111.1640625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1016,13 +1013,13 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>140</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -1082,15 +1079,15 @@
         <v>18</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -1156,7 +1153,7 @@
         <v>42</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X2" s="1">
         <v>6.96</v>
@@ -1164,7 +1161,7 @@
     </row>
     <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -1230,7 +1227,7 @@
         <v>44</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X3" s="1">
         <v>8.2100000000000009</v>
@@ -1238,7 +1235,7 @@
     </row>
     <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
@@ -1304,7 +1301,7 @@
         <v>47</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X4" s="1">
         <v>8.67</v>
@@ -1312,7 +1309,7 @@
     </row>
     <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -1378,7 +1375,7 @@
         <v>40</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X5" s="1">
         <v>7.92</v>
@@ -1386,7 +1383,7 @@
     </row>
     <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
@@ -1452,7 +1449,7 @@
         <v>42</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X6" s="1">
         <v>9.33</v>
@@ -1460,7 +1457,7 @@
     </row>
     <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
@@ -1526,7 +1523,7 @@
         <v>41</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X7" s="1">
         <v>9</v>
@@ -1534,7 +1531,7 @@
     </row>
     <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="6">
         <v>0</v>
@@ -1600,7 +1597,7 @@
         <v>39</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X8" s="1">
         <v>8.17</v>
@@ -1608,7 +1605,7 @@
     </row>
     <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
@@ -1674,7 +1671,7 @@
         <v>42</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X9" s="1">
         <v>8.33</v>
@@ -1682,7 +1679,7 @@
     </row>
     <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="6">
         <v>0</v>
@@ -1748,7 +1745,7 @@
         <v>40</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X10" s="1">
         <v>8.17</v>
@@ -1756,7 +1753,7 @@
     </row>
     <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
@@ -1822,7 +1819,7 @@
         <v>41</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X11" s="1">
         <v>8</v>
@@ -1830,7 +1827,7 @@
     </row>
     <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="6">
         <v>0</v>
@@ -1896,7 +1893,7 @@
         <v>40</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X12" s="1">
         <v>9.83</v>
@@ -1904,7 +1901,7 @@
     </row>
     <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="6">
         <v>0</v>
@@ -1970,7 +1967,7 @@
         <v>40</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X13" s="1">
         <v>6.92</v>
@@ -1978,7 +1975,7 @@
     </row>
     <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="6">
         <v>0</v>
@@ -2044,7 +2041,7 @@
         <v>39</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X14" s="1">
         <v>6.92</v>
@@ -2052,7 +2049,7 @@
     </row>
     <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B15" s="6">
         <v>1</v>
@@ -2118,7 +2115,7 @@
         <v>39</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X15" s="1">
         <v>7.83</v>
@@ -2126,7 +2123,7 @@
     </row>
     <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="6">
         <v>0</v>
@@ -2192,7 +2189,7 @@
         <v>39</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X16" s="1">
         <v>8.17</v>
@@ -2200,7 +2197,7 @@
     </row>
     <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="6">
         <v>0</v>
@@ -2266,7 +2263,7 @@
         <v>42</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X17" s="1">
         <v>7.67</v>
@@ -2274,7 +2271,7 @@
     </row>
     <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="6">
         <v>0</v>
@@ -2340,7 +2337,7 @@
         <v>39</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X18" s="1">
         <v>6.42</v>
@@ -2348,7 +2345,7 @@
     </row>
     <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
@@ -2414,7 +2411,7 @@
         <v>42</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X19" s="1">
         <v>9.5</v>
@@ -2422,7 +2419,7 @@
     </row>
     <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="6">
         <v>0</v>
@@ -2488,7 +2485,7 @@
         <v>41</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X20" s="1">
         <v>7.67</v>
@@ -2496,7 +2493,7 @@
     </row>
     <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B21" s="6">
         <v>1</v>
@@ -2562,7 +2559,7 @@
         <v>45</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X21" s="1">
         <v>9.33</v>
@@ -2570,7 +2567,7 @@
     </row>
     <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
@@ -2636,7 +2633,7 @@
         <v>42</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X22" s="1">
         <v>8.5</v>
@@ -2644,7 +2641,7 @@
     </row>
     <row r="23" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B23" s="6">
         <v>1</v>
@@ -2710,7 +2707,7 @@
         <v>40</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X23" s="1">
         <v>9.17</v>
@@ -2718,7 +2715,7 @@
     </row>
     <row r="24" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" s="6">
         <v>0</v>
@@ -2784,7 +2781,7 @@
         <v>43</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X24" s="1">
         <v>9.5</v>
@@ -2792,7 +2789,7 @@
     </row>
     <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
@@ -2866,7 +2863,7 @@
     </row>
     <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B26" s="6">
         <v>0</v>
@@ -2932,7 +2929,7 @@
         <v>39</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X26" s="1">
         <v>6.54</v>
@@ -2940,7 +2937,7 @@
     </row>
     <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B27" s="6">
         <v>0</v>
@@ -3006,7 +3003,7 @@
         <v>40</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X27" s="1">
         <v>7.83</v>
@@ -3014,7 +3011,7 @@
     </row>
     <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B28" s="6">
         <v>0</v>
@@ -3080,7 +3077,7 @@
         <v>47</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X28" s="1">
         <v>9.5</v>
@@ -3088,7 +3085,7 @@
     </row>
     <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B29" s="6">
         <v>0</v>
@@ -3154,7 +3151,7 @@
         <v>38</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X29" s="1">
         <v>0</v>
@@ -3162,7 +3159,7 @@
     </row>
     <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B30" s="6">
         <v>1</v>
@@ -3228,7 +3225,7 @@
         <v>45</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X30" s="1">
         <v>8.83</v>
@@ -3236,7 +3233,7 @@
     </row>
     <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="6">
         <v>0</v>
@@ -3302,7 +3299,7 @@
         <v>39</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X31" s="1">
         <v>0</v>
@@ -3310,7 +3307,7 @@
     </row>
     <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B32" s="6">
         <v>0</v>
@@ -3376,7 +3373,7 @@
         <v>47</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X32" s="1">
         <v>7.21</v>
@@ -3384,7 +3381,7 @@
     </row>
     <row r="33" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B33" s="6">
         <v>1</v>
@@ -3450,7 +3447,7 @@
         <v>40</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X33" s="1">
         <v>7.83</v>
@@ -3458,7 +3455,7 @@
     </row>
     <row r="34" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34" s="6">
         <v>0</v>
@@ -3524,7 +3521,7 @@
         <v>40</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X34" s="1">
         <v>7.67</v>
@@ -3532,7 +3529,7 @@
     </row>
     <row r="35" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B35" s="6">
         <v>0</v>
@@ -3598,7 +3595,7 @@
         <v>41</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X35" s="1">
         <v>7.79</v>
@@ -3606,7 +3603,7 @@
     </row>
     <row r="36" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B36" s="6">
         <v>0</v>
@@ -3672,7 +3669,7 @@
         <v>40</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X36" s="1">
         <v>6.96</v>
@@ -3680,7 +3677,7 @@
     </row>
     <row r="37" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B37" s="6">
         <v>0</v>
@@ -3746,7 +3743,7 @@
         <v>45</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X37" s="1">
         <v>8.33</v>
@@ -3754,7 +3751,7 @@
     </row>
     <row r="38" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B38" s="6">
         <v>1</v>
@@ -3820,7 +3817,7 @@
         <v>40</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X38" s="1">
         <v>8.33</v>
@@ -3828,7 +3825,7 @@
     </row>
     <row r="39" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B39" s="6">
         <v>1</v>
@@ -3894,7 +3891,7 @@
         <v>43</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X39" s="1">
         <v>9.33</v>
@@ -3902,7 +3899,7 @@
     </row>
     <row r="40" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B40" s="6">
         <v>0</v>
@@ -3968,7 +3965,7 @@
         <v>43</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X40" s="1">
         <v>8</v>
@@ -3976,7 +3973,7 @@
     </row>
     <row r="41" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B41" s="6">
         <v>1</v>
@@ -4042,7 +4039,7 @@
         <v>42</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X41" s="1">
         <v>7.42</v>
@@ -4050,7 +4047,7 @@
     </row>
     <row r="42" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B42" s="6">
         <v>0</v>
@@ -4116,7 +4113,7 @@
         <v>38</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X42" s="1">
         <v>6.5</v>
@@ -4124,7 +4121,7 @@
     </row>
     <row r="43" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B43" s="6">
         <v>0</v>
@@ -4190,7 +4187,7 @@
         <v>40</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X43" s="1">
         <v>8.17</v>
@@ -4198,7 +4195,7 @@
     </row>
     <row r="44" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B44" s="6">
         <v>0</v>
@@ -4264,7 +4261,7 @@
         <v>46</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X44" s="1">
         <v>7.67</v>
@@ -4272,7 +4269,7 @@
     </row>
     <row r="45" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B45" s="6">
         <v>0</v>
@@ -4338,7 +4335,7 @@
         <v>40</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X45" s="1">
         <v>8.83</v>
@@ -4346,7 +4343,7 @@
     </row>
     <row r="46" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B46" s="6">
         <v>0</v>
@@ -4412,7 +4409,7 @@
         <v>42</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X46" s="1">
         <v>8.33</v>
@@ -4420,7 +4417,7 @@
     </row>
     <row r="47" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B47" s="6">
         <v>0</v>
@@ -4486,7 +4483,7 @@
         <v>39</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X47" s="1">
         <v>8.5</v>
@@ -4494,7 +4491,7 @@
     </row>
     <row r="48" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B48" s="6">
         <v>0</v>
@@ -4560,7 +4557,7 @@
         <v>38</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X48" s="1">
         <v>7.42</v>
@@ -4568,7 +4565,7 @@
     </row>
     <row r="49" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B49" s="6">
         <v>0</v>
@@ -4634,7 +4631,7 @@
         <v>38</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X49" s="1">
         <v>8.83</v>
@@ -4642,7 +4639,7 @@
     </row>
     <row r="50" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B50" s="6">
         <v>0</v>
@@ -4708,7 +4705,7 @@
         <v>37</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X50" s="1">
         <v>7.42</v>
@@ -4716,7 +4713,7 @@
     </row>
     <row r="51" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B51" s="6">
         <v>0</v>
@@ -4782,7 +4779,7 @@
         <v>39</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X51" s="1">
         <v>7.58</v>
@@ -4790,7 +4787,7 @@
     </row>
     <row r="52" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B52" s="6">
         <v>0</v>
@@ -4856,7 +4853,7 @@
         <v>39</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X52" s="1">
         <v>8.92</v>
@@ -4864,7 +4861,7 @@
     </row>
     <row r="53" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B53" s="6">
         <v>1</v>
@@ -4930,7 +4927,7 @@
         <v>39</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X53" s="1">
         <v>9</v>
@@ -4938,7 +4935,7 @@
     </row>
     <row r="54" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B54" s="6">
         <v>1</v>
@@ -5004,7 +5001,7 @@
         <v>40</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X54" s="1">
         <v>8.67</v>
@@ -5012,7 +5009,7 @@
     </row>
     <row r="55" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B55" s="6">
         <v>1</v>
@@ -5078,7 +5075,7 @@
         <v>39</v>
       </c>
       <c r="W55" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X55" s="1">
         <v>9.08</v>
@@ -5086,7 +5083,7 @@
     </row>
     <row r="56" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B56" s="6">
         <v>0</v>
@@ -5152,7 +5149,7 @@
         <v>38</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X56" s="1">
         <v>8</v>
@@ -5160,7 +5157,7 @@
     </row>
     <row r="57" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B57" s="6">
         <v>0</v>
@@ -5226,7 +5223,7 @@
         <v>39</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X57" s="1">
         <v>8.17</v>
@@ -5234,7 +5231,7 @@
     </row>
     <row r="58" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B58" s="6">
         <v>1</v>
@@ -5300,7 +5297,7 @@
         <v>39</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X58" s="1">
         <v>8</v>
@@ -5308,7 +5305,7 @@
     </row>
     <row r="59" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B59" s="6">
         <v>0</v>
@@ -5374,7 +5371,7 @@
         <v>40</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X59" s="1">
         <v>6.67</v>
@@ -5382,7 +5379,7 @@
     </row>
     <row r="60" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B60" s="6">
         <v>0</v>
@@ -5448,7 +5445,7 @@
         <v>38</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X60" s="1">
         <v>7.92</v>
@@ -5456,7 +5453,7 @@
     </row>
     <row r="61" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B61" s="6">
         <v>0</v>
@@ -5522,7 +5519,7 @@
         <v>39</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X61" s="1">
         <v>7.92</v>
@@ -5530,7 +5527,7 @@
     </row>
     <row r="62" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B62" s="6">
         <v>0</v>
@@ -5596,7 +5593,7 @@
         <v>39</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X62" s="1">
         <v>7.5</v>
@@ -5604,7 +5601,7 @@
     </row>
     <row r="63" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B63" s="6">
         <v>0</v>
@@ -5670,7 +5667,7 @@
         <v>45</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X63" s="1">
         <v>8.17</v>
@@ -5678,7 +5675,7 @@
     </row>
     <row r="64" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B64" s="6">
         <v>0</v>
@@ -5744,7 +5741,7 @@
         <v>41</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X64" s="1">
         <v>9.6300000000000008</v>
@@ -5752,7 +5749,7 @@
     </row>
     <row r="65" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B65" s="6">
         <v>0</v>
@@ -5818,7 +5815,7 @@
         <v>40</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X65" s="1">
         <v>8.67</v>
@@ -5826,7 +5823,7 @@
     </row>
     <row r="66" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B66" s="6">
         <v>0</v>
@@ -5892,7 +5889,7 @@
         <v>40</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X66" s="1">
         <v>8.58</v>
@@ -5900,7 +5897,7 @@
     </row>
     <row r="67" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B67" s="6">
         <v>0</v>
@@ -5966,7 +5963,7 @@
         <v>39</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X67" s="1">
         <v>7.38</v>
@@ -5974,7 +5971,7 @@
     </row>
     <row r="68" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B68" s="6">
         <v>0</v>
@@ -6040,7 +6037,7 @@
         <v>46</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X68" s="1">
         <v>8.67</v>
@@ -6048,7 +6045,7 @@
     </row>
     <row r="69" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B69" s="6">
         <v>1</v>
@@ -6114,7 +6111,7 @@
         <v>40</v>
       </c>
       <c r="W69" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X69" s="1">
         <v>8.58</v>
@@ -6122,7 +6119,7 @@
     </row>
     <row r="70" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B70" s="6">
         <v>0</v>
@@ -6188,7 +6185,7 @@
         <v>39</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X70" s="1">
         <v>7.83</v>
@@ -6196,7 +6193,7 @@
     </row>
     <row r="71" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B71" s="6">
         <v>0</v>
@@ -6262,7 +6259,7 @@
         <v>40</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X71" s="1">
         <v>7.88</v>
@@ -6270,7 +6267,7 @@
     </row>
     <row r="72" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B72" s="6">
         <v>1</v>
@@ -6336,7 +6333,7 @@
         <v>44</v>
       </c>
       <c r="W72" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X72" s="1">
         <v>9</v>
@@ -6344,7 +6341,7 @@
     </row>
     <row r="73" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B73" s="6">
         <v>0</v>
@@ -6410,7 +6407,7 @@
         <v>37</v>
       </c>
       <c r="W73" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X73" s="1">
         <v>6.21</v>
@@ -6418,7 +6415,7 @@
     </row>
     <row r="74" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B74" s="6">
         <v>0</v>
@@ -6484,7 +6481,7 @@
         <v>40</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X74" s="1">
         <v>8.5</v>
@@ -6492,7 +6489,7 @@
     </row>
     <row r="75" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B75" s="6">
         <v>0</v>
@@ -6558,7 +6555,7 @@
         <v>37</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X75" s="1">
         <v>5.96</v>
@@ -6566,7 +6563,7 @@
     </row>
     <row r="76" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B76" s="6">
         <v>0</v>
@@ -6632,7 +6629,7 @@
         <v>45</v>
       </c>
       <c r="W76" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X76" s="1">
         <v>8.5</v>
@@ -6640,7 +6637,7 @@
     </row>
     <row r="77" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B77" s="6">
         <v>1</v>
@@ -6706,7 +6703,7 @@
         <v>48</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X77" s="1">
         <v>9.83</v>
@@ -6714,7 +6711,7 @@
     </row>
     <row r="78" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B78" s="6">
         <v>0</v>
@@ -6780,7 +6777,7 @@
         <v>46</v>
       </c>
       <c r="W78" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X78" s="1">
         <v>8</v>
@@ -6788,7 +6785,7 @@
     </row>
     <row r="79" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B79" s="6">
         <v>1</v>
@@ -6854,7 +6851,7 @@
         <v>44</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X79" s="1">
         <v>8.17</v>
@@ -6862,7 +6859,7 @@
     </row>
     <row r="80" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B80" s="6">
         <v>0</v>
@@ -6928,7 +6925,7 @@
         <v>44</v>
       </c>
       <c r="W80" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X80" s="1">
         <v>8.83</v>
@@ -6936,7 +6933,7 @@
     </row>
     <row r="81" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B81" s="6">
         <v>1</v>
@@ -7002,7 +6999,7 @@
         <v>40</v>
       </c>
       <c r="W81" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X81" s="1">
         <v>8.5</v>
@@ -7010,7 +7007,7 @@
     </row>
     <row r="82" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B82" s="6">
         <v>0</v>
@@ -7076,7 +7073,7 @@
         <v>40</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X82" s="1">
         <v>7.67</v>
@@ -7084,7 +7081,7 @@
     </row>
     <row r="83" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B83" s="6">
         <v>1</v>
@@ -7150,7 +7147,7 @@
         <v>46</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X83" s="1">
         <v>9.67</v>
@@ -7158,7 +7155,7 @@
     </row>
     <row r="84" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B84" s="6">
         <v>1</v>
@@ -7224,7 +7221,7 @@
         <v>40</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X84" s="1">
         <v>7</v>
@@ -7232,7 +7229,7 @@
     </row>
     <row r="85" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B85" s="6">
         <v>0</v>
@@ -7298,7 +7295,7 @@
         <v>41</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X85" s="1">
         <v>6.83</v>
@@ -7306,7 +7303,7 @@
     </row>
     <row r="86" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B86" s="6">
         <v>1</v>
@@ -7372,7 +7369,7 @@
         <v>43</v>
       </c>
       <c r="W86" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X86" s="1">
         <v>8.33</v>
@@ -7380,7 +7377,7 @@
     </row>
     <row r="87" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B87" s="6">
         <v>0</v>
@@ -7446,7 +7443,7 @@
         <v>46</v>
       </c>
       <c r="W87" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X87" s="1">
         <v>7.83</v>
@@ -7454,7 +7451,7 @@
     </row>
     <row r="88" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B88" s="6">
         <v>0</v>
@@ -7520,7 +7517,7 @@
         <v>40</v>
       </c>
       <c r="W88" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X88" s="1">
         <v>8.0399999999999991</v>
@@ -7528,7 +7525,7 @@
     </row>
     <row r="89" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B89" s="6">
         <v>1</v>
@@ -7594,7 +7591,7 @@
         <v>39</v>
       </c>
       <c r="W89" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X89" s="1">
         <v>7.5</v>
@@ -7602,7 +7599,7 @@
     </row>
     <row r="90" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B90" s="6">
         <v>0</v>
@@ -7668,7 +7665,7 @@
         <v>44</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X90" s="1">
         <v>8.33</v>
@@ -7676,7 +7673,7 @@
     </row>
     <row r="91" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B91" s="6">
         <v>0</v>
@@ -7742,7 +7739,7 @@
         <v>43</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X91" s="1">
         <v>7.83</v>
@@ -7750,7 +7747,7 @@
     </row>
     <row r="92" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B92" s="6">
         <v>0</v>
@@ -7816,7 +7813,7 @@
         <v>40</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X92" s="1">
         <v>9.17</v>
@@ -7824,7 +7821,7 @@
     </row>
     <row r="93" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B93" s="6">
         <v>0</v>
@@ -7890,7 +7887,7 @@
         <v>38</v>
       </c>
       <c r="W93" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X93" s="1">
         <v>7.67</v>
@@ -7898,7 +7895,7 @@
     </row>
     <row r="94" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B94" s="6">
         <v>0</v>
@@ -7964,7 +7961,7 @@
         <v>40</v>
       </c>
       <c r="W94" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X94" s="1">
         <v>8.83</v>
@@ -7972,7 +7969,7 @@
     </row>
     <row r="95" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B95" s="6">
         <v>0</v>
@@ -8038,7 +8035,7 @@
         <v>39</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X95" s="1">
         <v>7.5</v>
@@ -8046,7 +8043,7 @@
     </row>
     <row r="96" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B96" s="6">
         <v>0</v>
@@ -8112,7 +8109,7 @@
         <v>40</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X96" s="1">
         <v>7.79</v>
@@ -8120,7 +8117,7 @@
     </row>
     <row r="97" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B97" s="6">
         <v>0</v>
@@ -8186,7 +8183,7 @@
         <v>40</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X97" s="1">
         <v>7.67</v>
@@ -8194,7 +8191,7 @@
     </row>
     <row r="98" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B98" s="6">
         <v>0</v>
@@ -8260,7 +8257,7 @@
         <v>42</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X98" s="1">
         <v>9.33</v>
@@ -8268,7 +8265,7 @@
     </row>
     <row r="99" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B99" s="6">
         <v>1</v>
@@ -8334,7 +8331,7 @@
         <v>38</v>
       </c>
       <c r="W99" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X99" s="1">
         <v>6.46</v>
@@ -8342,7 +8339,7 @@
     </row>
     <row r="100" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B100" s="6">
         <v>1</v>
@@ -8408,7 +8405,7 @@
         <v>46</v>
       </c>
       <c r="W100" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X100" s="1">
         <v>9.7899999999999991</v>
@@ -8416,7 +8413,7 @@
     </row>
     <row r="101" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B101" s="6">
         <v>0</v>
@@ -8482,7 +8479,7 @@
         <v>40</v>
       </c>
       <c r="W101" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X101" s="1">
         <v>7.83</v>
@@ -8490,7 +8487,7 @@
     </row>
     <row r="102" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B102" s="6">
         <v>0</v>
@@ -8556,7 +8553,7 @@
         <v>42</v>
       </c>
       <c r="W102" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X102" s="1">
         <v>8.83</v>
@@ -8564,7 +8561,7 @@
     </row>
     <row r="103" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B103" s="6">
         <v>0</v>
@@ -8630,7 +8627,7 @@
         <v>43</v>
       </c>
       <c r="W103" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X103" s="1">
         <v>8</v>
@@ -8638,7 +8635,7 @@
     </row>
     <row r="104" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B104" s="6">
         <v>0</v>
@@ -8704,7 +8701,7 @@
         <v>40</v>
       </c>
       <c r="W104" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X104" s="1">
         <v>6.08</v>
@@ -8712,7 +8709,7 @@
     </row>
     <row r="105" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B105" s="6">
         <v>1</v>
@@ -8778,7 +8775,7 @@
         <v>39</v>
       </c>
       <c r="W105" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X105" s="1">
         <v>7.38</v>
@@ -8786,7 +8783,7 @@
     </row>
     <row r="106" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B106" s="6">
         <v>0</v>
@@ -8852,7 +8849,7 @@
         <v>44</v>
       </c>
       <c r="W106" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X106" s="1">
         <v>9.17</v>
@@ -8860,7 +8857,7 @@
     </row>
     <row r="107" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B107" s="6">
         <v>0</v>
@@ -8926,7 +8923,7 @@
         <v>39</v>
       </c>
       <c r="W107" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X107" s="1">
         <v>7.58</v>
@@ -8934,7 +8931,7 @@
     </row>
     <row r="108" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B108" s="6">
         <v>0</v>
@@ -9000,7 +8997,7 @@
         <v>45</v>
       </c>
       <c r="W108" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X108" s="1">
         <v>6.17</v>
@@ -9008,7 +9005,7 @@
     </row>
     <row r="109" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B109" s="6">
         <v>1</v>
@@ -9074,7 +9071,7 @@
         <v>41</v>
       </c>
       <c r="W109" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X109" s="1">
         <v>9</v>
@@ -9082,7 +9079,7 @@
     </row>
     <row r="110" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B110" s="6">
         <v>0</v>
@@ -9148,7 +9145,7 @@
         <v>40</v>
       </c>
       <c r="W110" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X110" s="1">
         <v>7.96</v>
@@ -9156,7 +9153,7 @@
     </row>
     <row r="111" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B111" s="6">
         <v>0</v>
@@ -9222,7 +9219,7 @@
         <v>38</v>
       </c>
       <c r="W111" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X111" s="1">
         <v>6.17</v>
@@ -9230,7 +9227,7 @@
     </row>
     <row r="112" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B112" s="6">
         <v>0</v>
@@ -9296,7 +9293,7 @@
         <v>48</v>
       </c>
       <c r="W112" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X112" s="1">
         <v>9.5</v>
@@ -9304,7 +9301,7 @@
     </row>
     <row r="113" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B113" s="6">
         <v>0</v>
@@ -9370,7 +9367,7 @@
         <v>44</v>
       </c>
       <c r="W113" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X113" s="1">
         <v>8.67</v>
@@ -9378,7 +9375,7 @@
     </row>
     <row r="114" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B114" s="6">
         <v>0</v>
@@ -9444,7 +9441,7 @@
         <v>39</v>
       </c>
       <c r="W114" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X114" s="1">
         <v>6.92</v>
@@ -9452,7 +9449,7 @@
     </row>
     <row r="115" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B115" s="6">
         <v>1</v>
@@ -9518,7 +9515,7 @@
         <v>39</v>
       </c>
       <c r="W115" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X115" s="1">
         <v>7.83</v>
@@ -9526,7 +9523,7 @@
     </row>
     <row r="116" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B116" s="6">
         <v>0</v>
@@ -9592,7 +9589,7 @@
         <v>45</v>
       </c>
       <c r="W116" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X116" s="1">
         <v>0</v>
@@ -9600,7 +9597,7 @@
     </row>
     <row r="117" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B117" s="6">
         <v>1</v>
@@ -9666,7 +9663,7 @@
         <v>39</v>
       </c>
       <c r="W117" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X117" s="1">
         <v>7.25</v>
@@ -9674,7 +9671,7 @@
     </row>
     <row r="118" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B118" s="6">
         <v>0</v>
@@ -9740,7 +9737,7 @@
         <v>42</v>
       </c>
       <c r="W118" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X118" s="1">
         <v>8.67</v>
@@ -9748,7 +9745,7 @@
     </row>
     <row r="119" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B119" s="6">
         <v>0</v>
@@ -9814,7 +9811,7 @@
         <v>38</v>
       </c>
       <c r="W119" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X119" s="1">
         <v>6.13</v>
@@ -9822,7 +9819,7 @@
     </row>
     <row r="120" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B120" s="6">
         <v>0</v>
@@ -9888,7 +9885,7 @@
         <v>41</v>
       </c>
       <c r="W120" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X120" s="1">
         <v>7.25</v>
@@ -9896,7 +9893,7 @@
     </row>
     <row r="121" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B121" s="6">
         <v>1</v>
@@ -9962,7 +9959,7 @@
         <v>40</v>
       </c>
       <c r="W121" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X121" s="1">
         <v>9.33</v>
@@ -9970,7 +9967,7 @@
     </row>
     <row r="122" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B122" s="6">
         <v>1</v>
@@ -10036,7 +10033,7 @@
         <v>44</v>
       </c>
       <c r="W122" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X122" s="1">
         <v>9.17</v>
@@ -10044,7 +10041,7 @@
     </row>
     <row r="123" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B123" s="6">
         <v>1</v>
@@ -10110,7 +10107,7 @@
         <v>40</v>
       </c>
       <c r="W123" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X123" s="1">
         <v>7.5</v>
@@ -10118,7 +10115,7 @@
     </row>
     <row r="124" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B124" s="6">
         <v>0</v>
@@ -10192,7 +10189,7 @@
     </row>
     <row r="125" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B125" s="6">
         <v>0</v>
@@ -10258,7 +10255,7 @@
         <v>40</v>
       </c>
       <c r="W125" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X125" s="1">
         <v>8.67</v>
@@ -10266,7 +10263,7 @@
     </row>
     <row r="126" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B126" s="6">
         <v>0</v>
@@ -10332,7 +10329,7 @@
         <v>36</v>
       </c>
       <c r="W126" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X126" s="1">
         <v>0</v>
@@ -10340,7 +10337,7 @@
     </row>
     <row r="127" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B127" s="6">
         <v>0</v>
@@ -10406,7 +10403,7 @@
         <v>41</v>
       </c>
       <c r="W127" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X127" s="1">
         <v>8.5</v>
@@ -10414,7 +10411,7 @@
     </row>
     <row r="128" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B128" s="6">
         <v>0</v>
@@ -10480,7 +10477,7 @@
         <v>41</v>
       </c>
       <c r="W128" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X128" s="1">
         <v>7.33</v>
@@ -10488,7 +10485,7 @@
     </row>
     <row r="129" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B129" s="6">
         <v>0</v>
@@ -10554,15 +10551,15 @@
         <v>40</v>
       </c>
       <c r="W129" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X129" s="1" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="X129" s="1">
+        <v>6.33</v>
       </c>
     </row>
     <row r="130" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B130" s="6">
         <v>0</v>
@@ -10628,7 +10625,7 @@
         <v>38</v>
       </c>
       <c r="W130" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X130" s="1">
         <v>6.58</v>
@@ -10636,7 +10633,7 @@
     </row>
     <row r="131" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B131" s="6">
         <v>0</v>
@@ -10702,7 +10699,7 @@
         <v>42</v>
       </c>
       <c r="W131" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X131" s="1">
         <v>8.33</v>
@@ -10710,7 +10707,7 @@
     </row>
     <row r="132" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B132" s="6">
         <v>1</v>
@@ -10776,7 +10773,7 @@
         <v>40</v>
       </c>
       <c r="W132" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X132" s="1">
         <v>8.67</v>
@@ -10784,7 +10781,7 @@
     </row>
     <row r="133" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B133" s="6">
         <v>0</v>
@@ -10858,7 +10855,7 @@
     </row>
     <row r="134" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B134" s="6">
         <v>0</v>
@@ -10924,7 +10921,7 @@
         <v>38</v>
       </c>
       <c r="W134" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X134" s="1">
         <v>6.17</v>
@@ -10932,7 +10929,7 @@
     </row>
     <row r="135" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B135" s="6">
         <v>1</v>
@@ -10998,7 +10995,7 @@
         <v>42</v>
       </c>
       <c r="W135" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X135" s="1">
         <v>8.7100000000000009</v>
@@ -11006,7 +11003,7 @@
     </row>
     <row r="136" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B136" s="6">
         <v>0</v>
@@ -11072,7 +11069,7 @@
         <v>38</v>
       </c>
       <c r="W136" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X136" s="1">
         <v>6.63</v>
@@ -11080,7 +11077,7 @@
     </row>
     <row r="137" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B137" s="6">
         <v>0</v>
@@ -11146,7 +11143,7 @@
         <v>39</v>
       </c>
       <c r="W137" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X137" s="1">
         <v>7.5</v>
@@ -11154,7 +11151,7 @@
     </row>
     <row r="138" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B138" s="6">
         <v>0</v>
@@ -11220,7 +11217,7 @@
         <v>37</v>
       </c>
       <c r="W138" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X138" s="1">
         <v>5.79</v>
@@ -11228,7 +11225,7 @@
     </row>
     <row r="139" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B139" s="6">
         <v>0</v>
@@ -11294,7 +11291,7 @@
         <v>45</v>
       </c>
       <c r="W139" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X139" s="1">
         <v>9.67</v>
@@ -11302,7 +11299,7 @@
     </row>
     <row r="140" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B140" s="6">
         <v>0</v>
@@ -11368,7 +11365,7 @@
         <v>42</v>
       </c>
       <c r="W140" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X140" s="1">
         <v>7.83</v>
@@ -11376,7 +11373,7 @@
     </row>
     <row r="141" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B141" s="6">
         <v>0</v>
@@ -11442,7 +11439,7 @@
         <v>40</v>
       </c>
       <c r="W141" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X141" s="1">
         <v>8</v>
@@ -11450,7 +11447,7 @@
     </row>
     <row r="142" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B142" s="6">
         <v>0</v>
@@ -11516,7 +11513,7 @@
         <v>40</v>
       </c>
       <c r="W142" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X142" s="1">
         <v>7.08</v>
@@ -11524,7 +11521,7 @@
     </row>
     <row r="143" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B143" s="6">
         <v>0</v>
@@ -11590,7 +11587,7 @@
         <v>39</v>
       </c>
       <c r="W143" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X143" s="1">
         <v>0</v>
@@ -11598,7 +11595,7 @@
     </row>
     <row r="144" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B144" s="6">
         <v>0</v>
@@ -11664,7 +11661,7 @@
         <v>39</v>
       </c>
       <c r="W144" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X144" s="1">
         <v>8.0399999999999991</v>
@@ -11672,7 +11669,7 @@
     </row>
     <row r="145" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B145" s="6">
         <v>1</v>
@@ -11738,7 +11735,7 @@
         <v>38</v>
       </c>
       <c r="W145" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X145" s="1">
         <v>7.25</v>
@@ -11746,7 +11743,7 @@
     </row>
     <row r="146" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B146" s="6">
         <v>0</v>
@@ -11812,7 +11809,7 @@
         <v>43</v>
       </c>
       <c r="W146" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X146" s="1">
         <v>9.08</v>
@@ -11820,7 +11817,7 @@
     </row>
     <row r="147" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B147" s="6">
         <v>1</v>
@@ -11886,7 +11883,7 @@
         <v>42</v>
       </c>
       <c r="W147" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X147" s="1">
         <v>9.17</v>
@@ -11894,7 +11891,7 @@
     </row>
     <row r="148" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B148" s="6">
         <v>1</v>
@@ -11960,7 +11957,7 @@
         <v>43</v>
       </c>
       <c r="W148" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X148" s="1">
         <v>9.83</v>
@@ -11968,7 +11965,7 @@
     </row>
     <row r="149" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B149" s="6">
         <v>0</v>
@@ -12034,7 +12031,7 @@
         <v>43</v>
       </c>
       <c r="W149" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X149" s="1">
         <v>8.0399999999999991</v>
@@ -12042,7 +12039,7 @@
     </row>
     <row r="150" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B150" s="6">
         <v>0</v>
@@ -12108,7 +12105,7 @@
         <v>48</v>
       </c>
       <c r="W150" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X150" s="1">
         <v>9.33</v>
@@ -12116,7 +12113,7 @@
     </row>
     <row r="151" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B151" s="6">
         <v>0</v>
@@ -12182,7 +12179,7 @@
         <v>40</v>
       </c>
       <c r="W151" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X151" s="1">
         <v>7.83</v>
@@ -12190,7 +12187,7 @@
     </row>
     <row r="152" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B152" s="6">
         <v>0</v>
@@ -12256,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="W152" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X152" s="1">
         <v>0</v>
@@ -12264,7 +12261,7 @@
     </row>
     <row r="153" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B153" s="6">
         <v>0</v>
@@ -12330,7 +12327,7 @@
         <v>41</v>
       </c>
       <c r="W153" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X153" s="1">
         <v>0</v>
@@ -12338,7 +12335,7 @@
     </row>
     <row r="154" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B154" s="6">
         <v>0</v>
@@ -12404,7 +12401,7 @@
         <v>39</v>
       </c>
       <c r="W154" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X154" s="1">
         <v>0</v>
@@ -12412,7 +12409,7 @@
     </row>
     <row r="155" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B155" s="6">
         <v>0</v>
@@ -12478,7 +12475,7 @@
         <v>47</v>
       </c>
       <c r="W155" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X155" s="1">
         <v>6.5</v>
@@ -12486,7 +12483,7 @@
     </row>
     <row r="156" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B156" s="6">
         <v>0</v>
@@ -12552,7 +12549,7 @@
         <v>35</v>
       </c>
       <c r="W156" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X156" s="1">
         <v>0</v>
@@ -12560,7 +12557,7 @@
     </row>
     <row r="157" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B157" s="6">
         <v>0</v>
@@ -12626,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="W157" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X157" s="1">
         <v>0</v>
